--- a/hero/doc/log/log_201608040221_wanghongfei.xlsx
+++ b/hero/doc/log/log_201608040221_wanghongfei.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{547CA5A7-EDCF-4453-A81A-2A93EB3DF87F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{614C5C94-0A9D-4916-93A4-CC853F599516}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,6 +117,22 @@
   </si>
   <si>
     <t>1.数据库表声称成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:00-21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.整合其他实体类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构更加清楚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善自己的实体类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -446,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -457,8 +473,8 @@
     <col min="1" max="1" width="14.109375" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="36.6640625" customWidth="1"/>
-    <col min="4" max="4" width="28.33203125" customWidth="1"/>
-    <col min="5" max="5" width="24.88671875" customWidth="1"/>
+    <col min="4" max="4" width="39.44140625" customWidth="1"/>
+    <col min="5" max="5" width="45.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -544,6 +560,23 @@
       </c>
       <c r="E5" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43238</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/hero/doc/log/log_201608040221_wanghongfei.xlsx
+++ b/hero/doc/log/log_201608040221_wanghongfei.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{614C5C94-0A9D-4916-93A4-CC853F599516}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100800_{C18C004F-31FB-4FC0-A398-FE0A76A32F4F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11952" windowHeight="4224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日志" sheetId="1" r:id="rId1"/>
     <sheet name="周报" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -133,6 +134,22 @@
   </si>
   <si>
     <t>完善自己的实体类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:00-15:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整合实体类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要改错，向高手请教</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -462,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -577,6 +594,23 @@
       </c>
       <c r="E6" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43239</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/hero/doc/log/log_201608040221_wanghongfei.xlsx
+++ b/hero/doc/log/log_201608040221_wanghongfei.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100800_{C18C004F-31FB-4FC0-A398-FE0A76A32F4F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{915AB6AA-28F3-4E67-9C70-35526855CC19}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11952" windowHeight="4224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,6 @@
     <sheet name="周报" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -150,6 +149,34 @@
   </si>
   <si>
     <t>需要改错，向高手请教</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:00-21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改正错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改正一点，还是有错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要改错，问同学查百度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改正错误并添加实体类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误改正，添加实体类运行出错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改错并运行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -479,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -611,6 +638,40 @@
       </c>
       <c r="E7" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43240</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43241</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/hero/doc/log/log_201608040221_wanghongfei.xlsx
+++ b/hero/doc/log/log_201608040221_wanghongfei.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{915AB6AA-28F3-4E67-9C70-35526855CC19}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BA978A88-3840-4E8F-A5D0-B1B7420BF296}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11952" windowHeight="4224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -177,6 +177,42 @@
   </si>
   <si>
     <t>改错并运行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:00-22:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看jsp视频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>观看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续观看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:00-21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:00-16:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>听课+改错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认真听课，没改出错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续改错</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -220,12 +256,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -506,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -672,6 +709,57 @@
       </c>
       <c r="E9" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43242</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43243</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43244</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/hero/doc/log/log_201608040221_wanghongfei.xlsx
+++ b/hero/doc/log/log_201608040221_wanghongfei.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BA978A88-3840-4E8F-A5D0-B1B7420BF296}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8C2B8750-0A43-4C5F-B786-D186F75D0DAE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11952" windowHeight="4224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -180,39 +180,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>19:00-22:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>看jsp视频</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>观看</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>继续观看</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>19:00-21:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>14:00-16:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>听课+改错</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认真听课，没改出错</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>继续改错</t>
+    <t>control类实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行只能显示表头数据不显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找到问题原因</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -256,13 +236,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -543,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -713,9 +692,9 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>43242</v>
-      </c>
-      <c r="B10" s="3" t="s">
+        <v>43265</v>
+      </c>
+      <c r="B10" t="s">
         <v>39</v>
       </c>
       <c r="C10" t="s">
@@ -726,40 +705,6 @@
       </c>
       <c r="E10" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>43243</v>
-      </c>
-      <c r="B11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>43244</v>
-      </c>
-      <c r="B12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/hero/doc/log/log_201608040221_wanghongfei.xlsx
+++ b/hero/doc/log/log_201608040221_wanghongfei.xlsx
@@ -1,230 +1,496 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8C2B8750-0A43-4C5F-B786-D186F75D0DAE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11952" windowHeight="4224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="13511" windowHeight="3767"/>
   </bookViews>
   <sheets>
     <sheet name="日志" sheetId="1" r:id="rId1"/>
     <sheet name="周报" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
   <si>
     <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
   </si>
   <si>
     <t>原计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>执行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>问题与后续计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>问题与后续计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>19:00-21:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1.领域实体改造 @table, @entity；
 2.数据库表自动生成；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1领域实体改造 @table, @entity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>运行时出错</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19:00-21:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.修正代码修改错误；</t>
+  </si>
+  <si>
+    <t>1.修正代码</t>
+  </si>
+  <si>
+    <t>代码还是有问题，还需请教高手</t>
+  </si>
+  <si>
+    <t>1.新建实体类；2.修正代码</t>
+  </si>
+  <si>
+    <t>1.实体类新建成功；2.代码修正完毕</t>
+  </si>
+  <si>
+    <t>数据库表自动生成</t>
+  </si>
+  <si>
+    <t>1.数据库表自动生成；</t>
+  </si>
+  <si>
+    <t>1.数据库表声称成功</t>
   </si>
   <si>
     <t>整体结构还不是很理解，还需学习加强</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19:00-21:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.修正代码修改错误；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.修正代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码还是有问题，还需请教高手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.数据库表自动生成；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.新建实体类；2.修正代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.实体类新建成功；2.代码修正完毕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库表自动生成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.数据库表声称成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19:00-21:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1.整合其他实体类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>结构更加清楚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>完善自己的实体类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>13:00-15:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>整合实体类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>出错</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>需要改错，向高手请教</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19:00-21:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>改正错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>改正一点，还是有错</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>需要改错，问同学查百度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>改正错误并添加实体类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>错误改正，添加实体类运行出错</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>改错并运行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19:00-21:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>control类实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>controller类实现</t>
   </si>
   <si>
     <t>运行只能显示表头数据不显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>找到问题原因</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周次</t>
+  </si>
+  <si>
+    <t>执行情况</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -232,9 +498,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -243,17 +751,61 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -302,7 +854,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -337,7 +889,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -511,250 +1063,246 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="14.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.1111111111111" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="36.6640625" customWidth="1"/>
-    <col min="4" max="4" width="39.44140625" customWidth="1"/>
-    <col min="5" max="5" width="45.33203125" customWidth="1"/>
+    <col min="3" max="3" width="36.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="39.4444444444444" customWidth="1"/>
+    <col min="5" max="5" width="45.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="2" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="60.75" customHeight="1" spans="1:5">
       <c r="A2" s="1">
         <v>43232</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>43235</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>43236</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>43237</v>
       </c>
       <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>43238</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>43239</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>43240</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>43241</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>43265</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" customWidth="1"/>
-    <col min="4" max="4" width="26.21875" customWidth="1"/>
+    <col min="2" max="2" width="17.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="19.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="26.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="77.25" customHeight="1" spans="1:1">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/hero/doc/log/log_201608040221_wanghongfei.xlsx
+++ b/hero/doc/log/log_201608040221_wanghongfei.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\xiaoyuandingcan\hero\doc\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D70B33B7-D70F-4218-9969-6D48C473CA80}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EE88F5B3-DE9A-42C8-9496-2A05B0AA8140}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13512" windowHeight="3768" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
   <si>
     <t>日期</t>
   </si>
@@ -144,6 +144,55 @@
   </si>
   <si>
     <t>理解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:00-21:02</t>
+  </si>
+  <si>
+    <t>19:00-21:03</t>
+  </si>
+  <si>
+    <t>13:00-16:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:00-16:21</t>
+  </si>
+  <si>
+    <t>报告</t>
+  </si>
+  <si>
+    <t>JIPA与Jenkins安装与使用</t>
+  </si>
+  <si>
+    <t>JIPA的安装与立项讨论</t>
+  </si>
+  <si>
+    <t>Jenkins环境配置,讨论,分配立项报告</t>
+  </si>
+  <si>
+    <t>学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装jira</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装jenkins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置jenkins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装jira并配置成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -151,7 +200,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +211,14 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -186,12 +243,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -467,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -669,10 +727,75 @@
         <v>39</v>
       </c>
     </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43270</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43271</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>43272</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>43273</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/hero/doc/log/log_201608040221_wanghongfei.xlsx
+++ b/hero/doc/log/log_201608040221_wanghongfei.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\xiaoyuandingcan\hero\doc\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EE88F5B3-DE9A-42C8-9496-2A05B0AA8140}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FF77D748-089F-4297-B13E-14AC2AABA86A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13512" windowHeight="3768" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="70">
   <si>
     <t>日期</t>
   </si>
@@ -193,6 +193,65 @@
   </si>
   <si>
     <t>安装jira并配置成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:00-16:22</t>
+  </si>
+  <si>
+    <t>13:00-16:23</t>
+  </si>
+  <si>
+    <t>13:00-16:24</t>
+  </si>
+  <si>
+    <t>13:00-16:25</t>
+  </si>
+  <si>
+    <t>13:00-16:26</t>
+  </si>
+  <si>
+    <t>完善jenkins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习jira的使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟悉jenkins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟悉jenkins的使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟悉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加jenkins用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮助组员学习jenkins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加jenkins项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -525,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -790,6 +849,91 @@
       </c>
       <c r="D15" s="3" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>43274</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>43275</v>
+      </c>
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>43276</v>
+      </c>
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>43277</v>
+      </c>
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>43278</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/hero/doc/log/log_201608040221_wanghongfei.xlsx
+++ b/hero/doc/log/log_201608040221_wanghongfei.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\xiaoyuandingcan\hero\doc\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FF77D748-089F-4297-B13E-14AC2AABA86A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3693EFD8-85DC-4007-A67B-36358005C203}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13512" windowHeight="3768" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="75">
   <si>
     <t>日期</t>
   </si>
@@ -252,6 +252,24 @@
   </si>
   <si>
     <t>添加jenkins项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:00-16:27</t>
+  </si>
+  <si>
+    <t>13:00-16:28</t>
+  </si>
+  <si>
+    <t>学习jenkins的使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续学习</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -584,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -934,6 +952,40 @@
       </c>
       <c r="E20" s="3" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>43279</v>
+      </c>
+      <c r="B21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>43280</v>
+      </c>
+      <c r="B22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/hero/doc/log/log_201608040221_wanghongfei.xlsx
+++ b/hero/doc/log/log_201608040221_wanghongfei.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\xiaoyuandingcan\hero\doc\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3693EFD8-85DC-4007-A67B-36358005C203}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{65FE8B8B-D321-4109-814F-3B957BFF0E59}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13512" windowHeight="3768" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="90">
   <si>
     <t>日期</t>
   </si>
@@ -270,6 +270,62 @@
   </si>
   <si>
     <t>继续学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:00-16:29</t>
+  </si>
+  <si>
+    <t>13:00-16:30</t>
+  </si>
+  <si>
+    <t>13:00-16:31</t>
+  </si>
+  <si>
+    <t>13:00-16:32</t>
+  </si>
+  <si>
+    <t>写一点概要设计说明书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写一点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习继续写概要设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>画出E-R图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写数据库语句</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写出一部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩下写完</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写完概要设计说明书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写完</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写详细设计说明书</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -602,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -986,6 +1042,74 @@
       </c>
       <c r="E22" s="3" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>43282</v>
+      </c>
+      <c r="B24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>43283</v>
+      </c>
+      <c r="B25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>43284</v>
+      </c>
+      <c r="B26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
